--- a/LIGUEONE_FINALSPREAD.xlsx
+++ b/LIGUEONE_FINALSPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="290">
   <si>
     <t>Div</t>
   </si>
@@ -398,6 +398,33 @@
     <t>45</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
@@ -626,6 +653,15 @@
     <t>10-3</t>
   </si>
   <si>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -767,7 +803,31 @@
     <t>Lyon-Marseille</t>
   </si>
   <si>
-    <t/>
+    <t>Auxerre-Brest</t>
+  </si>
+  <si>
+    <t>Paris SG-Rennes</t>
+  </si>
+  <si>
+    <t>Lens-Nice</t>
+  </si>
+  <si>
+    <t>Le Havre-Lille</t>
+  </si>
+  <si>
+    <t>Monaco-Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse-Lyon</t>
+  </si>
+  <si>
+    <t>Angers-Reims</t>
+  </si>
+  <si>
+    <t>Nantes-St Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg-Marseille</t>
   </si>
   <si>
     <t>Jeremy Stinat</t>
@@ -1133,16 +1193,16 @@
         <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45520.0</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -1151,7 +1211,7 @@
         <v>4.0</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1160,7 +1220,7 @@
         <v>1.0</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L2" t="n">
         <v>7.84</v>
@@ -1172,10 +1232,10 @@
         <v>1.42</v>
       </c>
       <c r="O2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q2" t="n">
         <v>5.0</v>
@@ -1223,16 +1283,16 @@
         <v>18.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AG2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ2" t="n">
         <v>3.0</v>
@@ -1241,10 +1301,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>251</v>
+        <v>218</v>
+      </c>
+      <c r="AM2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN2" t="n">
         <v>312.0</v>
@@ -1387,16 +1447,16 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -1405,7 +1465,7 @@
         <v>5.0</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I3" t="n">
         <v>1.0</v>
@@ -1414,7 +1474,7 @@
         <v>3.0</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L3" t="n">
         <v>2.96</v>
@@ -1426,10 +1486,10 @@
         <v>2.51</v>
       </c>
       <c r="O3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q3" t="n">
         <v>7.0</v>
@@ -1477,16 +1537,16 @@
         <v>18.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="AG3" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH3" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI3" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ3" t="n">
         <v>5.0</v>
@@ -1495,10 +1555,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>251</v>
+        <v>219</v>
+      </c>
+      <c r="AM3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN3" t="n">
         <v>222.0</v>
@@ -1641,16 +1701,16 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1659,7 +1719,7 @@
         <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -1668,7 +1728,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L4" t="n">
         <v>3.36</v>
@@ -1680,10 +1740,10 @@
         <v>2.27</v>
       </c>
       <c r="O4" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1731,16 +1791,16 @@
         <v>19.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="AG4" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ4" t="n">
         <v>4.0</v>
@@ -1749,10 +1809,10 @@
         <v>1.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>251</v>
+        <v>220</v>
+      </c>
+      <c r="AM4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN4" t="n">
         <v>135.0</v>
@@ -1895,16 +1955,16 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F5" t="n">
         <v>1.0</v>
@@ -1913,7 +1973,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
@@ -1922,7 +1982,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L5" t="n">
         <v>1.51</v>
@@ -1934,10 +1994,10 @@
         <v>6.26</v>
       </c>
       <c r="O5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q5" t="n">
         <v>13.0</v>
@@ -1985,16 +2045,16 @@
         <v>27.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="AG5" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AH5" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI5" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ5" t="n">
         <v>2.0</v>
@@ -2003,10 +2063,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>251</v>
+        <v>221</v>
+      </c>
+      <c r="AM5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN5" t="n">
         <v>29.0</v>
@@ -2149,16 +2209,16 @@
         <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F6" t="n">
         <v>2.0</v>
@@ -2167,7 +2227,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
@@ -2176,7 +2236,7 @@
         <v>1.0</v>
       </c>
       <c r="K6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L6" t="n">
         <v>3.22</v>
@@ -2188,10 +2248,10 @@
         <v>2.45</v>
       </c>
       <c r="O6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q6" t="n">
         <v>16.0</v>
@@ -2239,16 +2299,16 @@
         <v>28.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AG6" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH6" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.0</v>
@@ -2257,10 +2317,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>251</v>
+        <v>222</v>
+      </c>
+      <c r="AM6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN6" t="n">
         <v>154.0</v>
@@ -2403,16 +2463,16 @@
         <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -2421,7 +2481,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2430,7 +2490,7 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L7" t="n">
         <v>5.66</v>
@@ -2442,10 +2502,10 @@
         <v>1.65</v>
       </c>
       <c r="O7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q7" t="n">
         <v>4.0</v>
@@ -2493,16 +2553,16 @@
         <v>16.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AG7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AH7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ7" t="n">
         <v>1.0</v>
@@ -2511,10 +2571,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>251</v>
+        <v>223</v>
+      </c>
+      <c r="AM7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN7" t="n">
         <v>28.0</v>
@@ -2657,16 +2717,16 @@
         <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -2675,7 +2735,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2684,7 +2744,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L8" t="n">
         <v>2.12</v>
@@ -2696,10 +2756,10 @@
         <v>3.8</v>
       </c>
       <c r="O8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q8" t="n">
         <v>7.0</v>
@@ -2747,16 +2807,16 @@
         <v>38.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AG8" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH8" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI8" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ8" t="n">
         <v>7.0</v>
@@ -2765,10 +2825,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>251</v>
+        <v>224</v>
+      </c>
+      <c r="AM8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN8" t="n">
         <v>125.0</v>
@@ -2911,16 +2971,16 @@
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -2929,7 +2989,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2938,7 +2998,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L9" t="n">
         <v>2.11</v>
@@ -2950,10 +3010,10 @@
         <v>3.92</v>
       </c>
       <c r="O9" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q9" t="n">
         <v>7.0</v>
@@ -3001,16 +3061,16 @@
         <v>18.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="AG9" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AH9" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI9" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ9" t="n">
         <v>4.0</v>
@@ -3019,10 +3079,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AM9" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AN9" t="n">
         <v>0.0</v>
@@ -3165,16 +3225,16 @@
         <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F10" t="n">
         <v>3.0</v>
@@ -3183,7 +3243,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I10" t="n">
         <v>2.0</v>
@@ -3192,7 +3252,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L10" t="n">
         <v>2.47</v>
@@ -3204,10 +3264,10 @@
         <v>3.01</v>
       </c>
       <c r="O10" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q10" t="n">
         <v>22.0</v>
@@ -3255,16 +3315,16 @@
         <v>25.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AG10" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH10" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI10" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ10" t="n">
         <v>3.0</v>
@@ -3273,10 +3333,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>251</v>
+        <v>226</v>
+      </c>
+      <c r="AM10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN10" t="n">
         <v>130.0</v>
@@ -3419,16 +3479,16 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F11" t="n">
         <v>6.0</v>
@@ -3437,7 +3497,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I11" t="n">
         <v>2.0</v>
@@ -3446,7 +3506,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -3458,10 +3518,10 @@
         <v>10.85</v>
       </c>
       <c r="O11" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
         <v>21.0</v>
@@ -3509,16 +3569,16 @@
         <v>25.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AG11" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH11" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI11" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ11" t="n">
         <v>5.0</v>
@@ -3527,10 +3587,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>215</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="AM11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN11" t="n">
         <v>281.0</v>
@@ -3673,16 +3733,16 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -3691,7 +3751,7 @@
         <v>2.0</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -3700,7 +3760,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L12" t="n">
         <v>2.62</v>
@@ -3712,10 +3772,10 @@
         <v>2.61</v>
       </c>
       <c r="O12" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q12" t="n">
         <v>2.0</v>
@@ -3763,16 +3823,16 @@
         <v>17.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="AG12" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH12" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI12" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.0</v>
@@ -3781,10 +3841,10 @@
         <v>1.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>251</v>
+        <v>228</v>
+      </c>
+      <c r="AM12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN12" t="n">
         <v>145.0</v>
@@ -3927,16 +3987,16 @@
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F13" t="n">
         <v>2.0</v>
@@ -3945,7 +4005,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I13" t="n">
         <v>1.0</v>
@@ -3954,7 +4014,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -3966,10 +4026,10 @@
         <v>8.77</v>
       </c>
       <c r="O13" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q13" t="n">
         <v>11.0</v>
@@ -4017,16 +4077,16 @@
         <v>26.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AG13" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH13" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI13" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ13" t="n">
         <v>3.0</v>
@@ -4035,10 +4095,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>251</v>
+        <v>229</v>
+      </c>
+      <c r="AM13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN13" t="n">
         <v>124.0</v>
@@ -4181,16 +4241,16 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -4199,7 +4259,7 @@
         <v>2.0</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -4208,7 +4268,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L14" t="n">
         <v>2.11</v>
@@ -4220,10 +4280,10 @@
         <v>3.71</v>
       </c>
       <c r="O14" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q14" t="n">
         <v>18.0</v>
@@ -4271,16 +4331,16 @@
         <v>20.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AG14" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH14" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI14" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ14" t="n">
         <v>6.0</v>
@@ -4289,10 +4349,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>251</v>
+        <v>230</v>
+      </c>
+      <c r="AM14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN14" t="n">
         <v>124.0</v>
@@ -4435,16 +4495,16 @@
         <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -4453,7 +4513,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I15" t="n">
         <v>2.0</v>
@@ -4462,7 +4522,7 @@
         <v>0.0</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L15" t="n">
         <v>1.81</v>
@@ -4474,10 +4534,10 @@
         <v>4.69</v>
       </c>
       <c r="O15" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q15" t="n">
         <v>22.0</v>
@@ -4525,16 +4585,16 @@
         <v>14.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AG15" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH15" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI15" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ15" t="n">
         <v>0.0</v>
@@ -4543,10 +4603,10 @@
         <v>1.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>251</v>
+        <v>231</v>
+      </c>
+      <c r="AM15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN15" t="n">
         <v>64.0</v>
@@ -4689,16 +4749,16 @@
         <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F16" t="n">
         <v>2.0</v>
@@ -4707,7 +4767,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I16" t="n">
         <v>1.0</v>
@@ -4716,7 +4776,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L16" t="n">
         <v>2.25</v>
@@ -4728,10 +4788,10 @@
         <v>3.22</v>
       </c>
       <c r="O16" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q16" t="n">
         <v>8.0</v>
@@ -4779,16 +4839,16 @@
         <v>15.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH16" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI16" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ16" t="n">
         <v>0.0</v>
@@ -4797,10 +4857,10 @@
         <v>1.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="AM16" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AN16" t="n">
         <v>104.0</v>
@@ -4943,16 +5003,16 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F17" t="n">
         <v>1.0</v>
@@ -4961,7 +5021,7 @@
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -4970,7 +5030,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L17" t="n">
         <v>1.88</v>
@@ -4982,10 +5042,10 @@
         <v>4.57</v>
       </c>
       <c r="O17" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q17" t="n">
         <v>10.0</v>
@@ -5033,16 +5093,16 @@
         <v>32.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH17" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI17" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ17" t="n">
         <v>5.0</v>
@@ -5051,10 +5111,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>251</v>
+        <v>233</v>
+      </c>
+      <c r="AM17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN17" t="n">
         <v>126.0</v>
@@ -5197,16 +5257,16 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F18" t="n">
         <v>3.0</v>
@@ -5215,7 +5275,7 @@
         <v>1.0</v>
       </c>
       <c r="H18" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
@@ -5224,7 +5284,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L18" t="n">
         <v>3.19</v>
@@ -5236,10 +5296,10 @@
         <v>2.3</v>
       </c>
       <c r="O18" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q18" t="n">
         <v>9.0</v>
@@ -5287,16 +5347,16 @@
         <v>26.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH18" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI18" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ18" t="n">
         <v>6.0</v>
@@ -5305,10 +5365,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>251</v>
+        <v>234</v>
+      </c>
+      <c r="AM18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN18" t="n">
         <v>215.0</v>
@@ -5451,16 +5511,16 @@
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -5469,7 +5529,7 @@
         <v>2.0</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -5478,7 +5538,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L19" t="n">
         <v>1.56</v>
@@ -5490,10 +5550,10 @@
         <v>5.84</v>
       </c>
       <c r="O19" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q19" t="n">
         <v>16.0</v>
@@ -5541,16 +5601,16 @@
         <v>23.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH19" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI19" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ19" t="n">
         <v>2.0</v>
@@ -5559,10 +5619,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>251</v>
+        <v>235</v>
+      </c>
+      <c r="AM19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN19" t="n">
         <v>202.0</v>
@@ -5705,16 +5765,16 @@
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F20" t="n">
         <v>4.0</v>
@@ -5723,7 +5783,7 @@
         <v>3.0</v>
       </c>
       <c r="H20" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
@@ -5732,7 +5792,7 @@
         <v>1.0</v>
       </c>
       <c r="K20" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L20" t="n">
         <v>1.89</v>
@@ -5744,10 +5804,10 @@
         <v>4.18</v>
       </c>
       <c r="O20" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q20" t="n">
         <v>22.0</v>
@@ -5795,16 +5855,16 @@
         <v>16.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH20" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI20" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ20" t="n">
         <v>5.0</v>
@@ -5813,10 +5873,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AM20" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="AN20" t="n">
         <v>350.0</v>
@@ -5959,16 +6019,16 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F21" t="n">
         <v>4.0</v>
@@ -5977,7 +6037,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I21" t="n">
         <v>2.0</v>
@@ -5986,7 +6046,7 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L21" t="n">
         <v>1.85</v>
@@ -5998,10 +6058,10 @@
         <v>4.28</v>
       </c>
       <c r="O21" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q21" t="n">
         <v>17.0</v>
@@ -6049,16 +6109,16 @@
         <v>40.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH21" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI21" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ21" t="n">
         <v>5.0</v>
@@ -6067,10 +6127,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AM21" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AN21" t="n">
         <v>203.0</v>
@@ -6213,16 +6273,16 @@
         <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -6231,7 +6291,7 @@
         <v>3.0</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -6240,7 +6300,7 @@
         <v>2.0</v>
       </c>
       <c r="K22" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L22" t="n">
         <v>2.35</v>
@@ -6252,10 +6312,10 @@
         <v>3.22</v>
       </c>
       <c r="O22" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q22" t="n">
         <v>11.0</v>
@@ -6303,16 +6363,16 @@
         <v>24.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH22" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI22" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -6321,10 +6381,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="AN22" t="n">
         <v>184.0</v>
@@ -6467,16 +6527,16 @@
         <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -6485,7 +6545,7 @@
         <v>3.0</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -6494,7 +6554,7 @@
         <v>2.0</v>
       </c>
       <c r="K23" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L23" t="n">
         <v>4.09</v>
@@ -6506,10 +6566,10 @@
         <v>1.91</v>
       </c>
       <c r="O23" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q23" t="n">
         <v>4.0</v>
@@ -6557,16 +6617,16 @@
         <v>22.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AG23" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH23" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI23" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ23" t="n">
         <v>6.0</v>
@@ -6575,10 +6635,10 @@
         <v>1.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AN23" t="n">
         <v>175.0</v>
@@ -6721,16 +6781,16 @@
         <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F24" t="n">
         <v>1.0</v>
@@ -6739,7 +6799,7 @@
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -6748,7 +6808,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L24" t="n">
         <v>1.83</v>
@@ -6760,10 +6820,10 @@
         <v>3.9</v>
       </c>
       <c r="O24" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q24" t="n">
         <v>14.0</v>
@@ -6811,16 +6871,16 @@
         <v>32.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AG24" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH24" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI24" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ24" t="n">
         <v>5.0</v>
@@ -6829,10 +6889,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="AN24" t="n">
         <v>174.0</v>
@@ -6975,16 +7035,16 @@
         <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6993,7 +7053,7 @@
         <v>4.0</v>
       </c>
       <c r="H25" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -7002,7 +7062,7 @@
         <v>2.0</v>
       </c>
       <c r="K25" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L25" t="n">
         <v>4.2</v>
@@ -7014,10 +7074,10 @@
         <v>2.01</v>
       </c>
       <c r="O25" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q25" t="n">
         <v>12.0</v>
@@ -7065,16 +7125,16 @@
         <v>27.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AG25" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH25" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI25" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ25" t="n">
         <v>10.0</v>
@@ -7083,10 +7143,10 @@
         <v>1.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="n">
         <v>255.0</v>
@@ -7229,16 +7289,16 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F26" t="n">
         <v>3.0</v>
@@ -7247,7 +7307,7 @@
         <v>1.0</v>
       </c>
       <c r="H26" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I26" t="n">
         <v>1.0</v>
@@ -7256,7 +7316,7 @@
         <v>1.0</v>
       </c>
       <c r="K26" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L26" t="n">
         <v>2.81</v>
@@ -7268,10 +7328,10 @@
         <v>2.69</v>
       </c>
       <c r="O26" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q26" t="n">
         <v>21.0</v>
@@ -7319,16 +7379,16 @@
         <v>25.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AG26" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH26" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI26" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ26" t="n">
         <v>6.0</v>
@@ -7337,10 +7397,10 @@
         <v>1.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="AM26" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="AN26" t="n">
         <v>182.0</v>
@@ -7483,16 +7543,16 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F27" t="n">
         <v>2.0</v>
@@ -7501,7 +7561,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I27" t="n">
         <v>1.0</v>
@@ -7510,7 +7570,7 @@
         <v>1.0</v>
       </c>
       <c r="K27" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L27" t="n">
         <v>2.94</v>
@@ -7522,10 +7582,10 @@
         <v>2.37</v>
       </c>
       <c r="O27" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q27" t="n">
         <v>11.0</v>
@@ -7573,16 +7633,16 @@
         <v>21.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AG27" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH27" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI27" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ27" t="n">
         <v>3.0</v>
@@ -7591,10 +7651,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="AM27" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="AN27" t="n">
         <v>102.0</v>
@@ -7737,16 +7797,16 @@
         <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -7755,7 +7815,7 @@
         <v>3.0</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -7764,7 +7824,7 @@
         <v>2.0</v>
       </c>
       <c r="K28" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L28" t="n">
         <v>4.31</v>
@@ -7776,10 +7836,10 @@
         <v>1.86</v>
       </c>
       <c r="O28" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q28" t="n">
         <v>10.0</v>
@@ -7827,16 +7887,16 @@
         <v>12.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AG28" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH28" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI28" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ28" t="n">
         <v>5.0</v>
@@ -7845,10 +7905,10 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="AM28" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="n">
         <v>237.0</v>
@@ -7991,16 +8051,16 @@
         <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -8009,7 +8069,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -8018,7 +8078,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L29" t="n">
         <v>5.22</v>
@@ -8030,10 +8090,10 @@
         <v>1.72</v>
       </c>
       <c r="O29" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q29" t="n">
         <v>10.0</v>
@@ -8081,16 +8141,16 @@
         <v>22.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="AG29" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AH29" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI29" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ29" t="n">
         <v>2.0</v>
@@ -8099,10 +8159,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="AM29" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="n">
         <v>6.0</v>
@@ -8245,16 +8305,16 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -8263,7 +8323,7 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I30" t="n">
         <v>1.0</v>
@@ -8272,7 +8332,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L30" t="n">
         <v>1.75</v>
@@ -8284,10 +8344,10 @@
         <v>4.6</v>
       </c>
       <c r="O30" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q30" t="n">
         <v>10.0</v>
@@ -8335,16 +8395,16 @@
         <v>22.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="AG30" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH30" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI30" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ30" t="n">
         <v>7.0</v>
@@ -8353,10 +8413,10 @@
         <v>1.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AM30" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="AN30" t="n">
         <v>93.0</v>
@@ -8499,16 +8559,16 @@
         <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -8517,7 +8577,7 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -8526,7 +8586,7 @@
         <v>2.0</v>
       </c>
       <c r="K31" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L31" t="n">
         <v>4.02</v>
@@ -8538,10 +8598,10 @@
         <v>1.89</v>
       </c>
       <c r="O31" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q31" t="n">
         <v>13.0</v>
@@ -8589,16 +8649,16 @@
         <v>29.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AG31" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH31" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI31" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ31" t="n">
         <v>3.0</v>
@@ -8607,10 +8667,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="AM31" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AN31" t="n">
         <v>122.0</v>
@@ -8753,16 +8813,16 @@
         <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F32" t="n">
         <v>3.0</v>
@@ -8771,7 +8831,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
@@ -8780,7 +8840,7 @@
         <v>1.0</v>
       </c>
       <c r="K32" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L32" t="n">
         <v>1.28</v>
@@ -8792,10 +8852,10 @@
         <v>9.59</v>
       </c>
       <c r="O32" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q32" t="n">
         <v>22.0</v>
@@ -8843,16 +8903,16 @@
         <v>20.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="AG32" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH32" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI32" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ32" t="n">
         <v>5.0</v>
@@ -8861,10 +8921,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="AM32" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="n">
         <v>218.0</v>
@@ -9007,16 +9067,16 @@
         <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F33" t="n">
         <v>3.0</v>
@@ -9025,7 +9085,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I33" t="n">
         <v>2.0</v>
@@ -9034,7 +9094,7 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L33" t="n">
         <v>1.63</v>
@@ -9046,10 +9106,10 @@
         <v>5.16</v>
       </c>
       <c r="O33" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q33" t="n">
         <v>11.0</v>
@@ -9097,16 +9157,16 @@
         <v>17.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AG33" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH33" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI33" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ33" t="n">
         <v>4.0</v>
@@ -9115,10 +9175,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="AM33" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="AN33" t="n">
         <v>119.0</v>
@@ -9261,16 +9321,16 @@
         <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
@@ -9279,7 +9339,7 @@
         <v>2.0</v>
       </c>
       <c r="H34" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -9288,7 +9348,7 @@
         <v>1.0</v>
       </c>
       <c r="K34" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L34" t="n">
         <v>2.43</v>
@@ -9300,10 +9360,10 @@
         <v>3.03</v>
       </c>
       <c r="O34" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q34" t="n">
         <v>18.0</v>
@@ -9351,16 +9411,16 @@
         <v>19.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AG34" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH34" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI34" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ34" t="n">
         <v>4.0</v>
@@ -9369,10 +9429,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="AM34" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="AN34" t="n">
         <v>152.0</v>
@@ -9515,16 +9575,16 @@
         <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -9533,7 +9593,7 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
@@ -9542,7 +9602,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L35" t="n">
         <v>1.69</v>
@@ -9554,10 +9614,10 @@
         <v>5.31</v>
       </c>
       <c r="O35" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q35" t="n">
         <v>10.0</v>
@@ -9605,16 +9665,16 @@
         <v>25.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="AG35" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH35" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI35" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ35" t="n">
         <v>5.0</v>
@@ -9623,10 +9683,10 @@
         <v>0.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="AM35" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="AN35" t="n">
         <v>93.0</v>
@@ -9769,16 +9829,16 @@
         <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F36" t="n">
         <v>2.0</v>
@@ -9787,7 +9847,7 @@
         <v>0.0</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -9796,7 +9856,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L36" t="n">
         <v>1.85</v>
@@ -9808,10 +9868,10 @@
         <v>4.37</v>
       </c>
       <c r="O36" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q36" t="n">
         <v>15.0</v>
@@ -9859,16 +9919,16 @@
         <v>21.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AG36" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH36" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI36" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ36" t="n">
         <v>2.0</v>
@@ -9877,10 +9937,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="AM36" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="AN36" t="n">
         <v>156.0</v>
@@ -10023,16 +10083,16 @@
         <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -10041,7 +10101,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -10050,7 +10110,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L37" t="n">
         <v>1.86</v>
@@ -10062,10 +10122,10 @@
         <v>4.18</v>
       </c>
       <c r="O37" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q37" t="n">
         <v>12.0</v>
@@ -10113,16 +10173,16 @@
         <v>23.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AG37" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AH37" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI37" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ37" t="n">
         <v>0.0</v>
@@ -10131,10 +10191,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="AM37" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="AN37" t="n">
         <v>0.0</v>
@@ -10277,16 +10337,16 @@
         <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F38" t="n">
         <v>8.0</v>
@@ -10295,7 +10355,7 @@
         <v>0.0</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I38" t="n">
         <v>6.0</v>
@@ -10304,7 +10364,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L38" t="n">
         <v>1.55</v>
@@ -10316,10 +10376,10 @@
         <v>6.57</v>
       </c>
       <c r="O38" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q38" t="n">
         <v>18.0</v>
@@ -10367,16 +10427,16 @@
         <v>20.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AG38" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH38" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI38" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ38" t="n">
         <v>1.0</v>
@@ -10385,10 +10445,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AM38" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="AN38" t="n">
         <v>297.0</v>
@@ -10531,16 +10591,16 @@
         <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F39" t="n">
         <v>3.0</v>
@@ -10549,7 +10609,7 @@
         <v>3.0</v>
       </c>
       <c r="H39" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I39" t="n">
         <v>2.0</v>
@@ -10558,7 +10618,7 @@
         <v>2.0</v>
       </c>
       <c r="K39" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L39" t="n">
         <v>1.74</v>
@@ -10570,10 +10630,10 @@
         <v>4.93</v>
       </c>
       <c r="O39" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q39" t="n">
         <v>15.0</v>
@@ -10621,16 +10681,16 @@
         <v>28.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="AG39" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH39" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI39" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ39" t="n">
         <v>4.0</v>
@@ -10639,10 +10699,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="AM39" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="AN39" t="n">
         <v>264.0</v>
@@ -10785,16 +10845,16 @@
         <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F40" t="n">
         <v>1.0</v>
@@ -10803,7 +10863,7 @@
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I40" t="n">
         <v>1.0</v>
@@ -10812,7 +10872,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L40" t="n">
         <v>2.44</v>
@@ -10824,10 +10884,10 @@
         <v>3.09</v>
       </c>
       <c r="O40" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q40" t="n">
         <v>11.0</v>
@@ -10875,16 +10935,16 @@
         <v>36.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AG40" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH40" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI40" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ40" t="n">
         <v>6.0</v>
@@ -10893,10 +10953,10 @@
         <v>0.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AM40" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AN40" t="n">
         <v>114.0</v>
@@ -11039,16 +11099,16 @@
         <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -11057,7 +11117,7 @@
         <v>1.0</v>
       </c>
       <c r="H41" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
@@ -11066,7 +11126,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L41" t="n">
         <v>6.91</v>
@@ -11078,10 +11138,10 @@
         <v>1.44</v>
       </c>
       <c r="O41" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q41" t="n">
         <v>8.0</v>
@@ -11129,16 +11189,16 @@
         <v>17.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AG41" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH41" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI41" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ41" t="n">
         <v>3.0</v>
@@ -11147,10 +11207,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AM41" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="AN41" t="n">
         <v>77.0</v>
@@ -11293,16 +11353,16 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F42" t="n">
         <v>3.0</v>
@@ -11311,7 +11371,7 @@
         <v>1.0</v>
       </c>
       <c r="H42" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I42" t="n">
         <v>1.0</v>
@@ -11320,7 +11380,7 @@
         <v>1.0</v>
       </c>
       <c r="K42" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L42" t="n">
         <v>1.38</v>
@@ -11332,10 +11392,10 @@
         <v>8.11</v>
       </c>
       <c r="O42" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q42" t="n">
         <v>14.0</v>
@@ -11383,16 +11443,16 @@
         <v>27.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AG42" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH42" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI42" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ42" t="n">
         <v>4.0</v>
@@ -11401,10 +11461,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="AM42" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AN42" t="n">
         <v>175.0</v>
@@ -11547,16 +11607,16 @@
         <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F43" t="n">
         <v>1.0</v>
@@ -11565,7 +11625,7 @@
         <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -11574,7 +11634,7 @@
         <v>1.0</v>
       </c>
       <c r="K43" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L43" t="n">
         <v>3.32</v>
@@ -11586,10 +11646,10 @@
         <v>2.39</v>
       </c>
       <c r="O43" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q43" t="n">
         <v>4.0</v>
@@ -11637,16 +11697,16 @@
         <v>29.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AG43" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH43" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI43" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ43" t="n">
         <v>5.0</v>
@@ -11655,10 +11715,10 @@
         <v>0.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="AM43" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="AN43" t="n">
         <v>42.0</v>
@@ -11801,16 +11861,16 @@
         <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F44" t="n">
         <v>2.0</v>
@@ -11819,7 +11879,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
@@ -11828,7 +11888,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L44" t="n">
         <v>2.16</v>
@@ -11840,10 +11900,10 @@
         <v>3.44</v>
       </c>
       <c r="O44" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q44" t="n">
         <v>9.0</v>
@@ -11891,16 +11951,16 @@
         <v>33.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AG44" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH44" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AI44" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AJ44" t="n">
         <v>2.0</v>
@@ -11909,10 +11969,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AM44" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="AN44" t="n">
         <v>111.0</v>
@@ -12055,16 +12115,16 @@
         <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F45" t="n">
         <v>3.0</v>
@@ -12073,7 +12133,7 @@
         <v>2.0</v>
       </c>
       <c r="H45" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -12082,7 +12142,7 @@
         <v>1.0</v>
       </c>
       <c r="K45" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L45" t="n">
         <v>2.39</v>
@@ -12094,10 +12154,10 @@
         <v>3.14</v>
       </c>
       <c r="O45" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="Q45" t="n">
         <v>14.0</v>
@@ -12145,16 +12205,16 @@
         <v>33.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AG45" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH45" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI45" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ45" t="n">
         <v>7.0</v>
@@ -12163,10 +12223,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AM45" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="AN45" t="n">
         <v>301.0</v>
@@ -12309,16 +12369,16 @@
         <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F46" t="n">
         <v>2.0</v>
@@ -12327,7 +12387,7 @@
         <v>3.0</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
@@ -12336,7 +12396,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L46" t="n">
         <v>3.06</v>
@@ -12348,10 +12408,10 @@
         <v>2.21</v>
       </c>
       <c r="O46" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Q46" t="n">
         <v>18.0</v>
@@ -12399,16 +12459,16 @@
         <v>20.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AG46" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AH46" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI46" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AJ46" t="n">
         <v>7.0</v>
@@ -12417,10 +12477,10 @@
         <v>1.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AM46" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AN46" t="n">
         <v>384.0</v>
@@ -12556,6 +12616,2292 @@
       </c>
       <c r="CF46" t="n">
         <v>174.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="n" s="2">
+        <v>45562.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>157</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>157</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O47" t="s">
+        <v>164</v>
+      </c>
+      <c r="P47" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1420.0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>610.0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BT47" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BV47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BZ47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CB47" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CC47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD47" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CE47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" t="n" s="2">
+        <v>45562.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>157</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="O48" t="s">
+        <v>161</v>
+      </c>
+      <c r="P48" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>285</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>3440.0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>860.0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>2310.0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT48" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BV48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="BX48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY48" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BZ48" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="CA48" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="CB48" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CC48" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CD48" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CE48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF48" t="n">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>158</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O49" t="s">
+        <v>163</v>
+      </c>
+      <c r="P49" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1275.0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT49" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BV49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BZ49" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="CA49" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="CB49" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CC49" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CD49" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CE49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF49" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>156</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O50" t="s">
+        <v>166</v>
+      </c>
+      <c r="P50" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>810.0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>822.0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT50" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="BZ50" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="CA50" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="CB50" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CC50" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="CD50" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CE50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF50" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>157</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>158</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="N51" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="O51" t="s">
+        <v>162</v>
+      </c>
+      <c r="P51" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>278</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>2200.0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>4085.0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>1104.0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>2280.0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BT51" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="BV51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BX51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY51" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="BZ51" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CA51" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="CB51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="CC51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CD51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CE51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF51" t="n">
+        <v>119.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>156</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>158</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O52" t="s">
+        <v>162</v>
+      </c>
+      <c r="P52" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>920.0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>924.0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="CB52" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CC52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CD52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CE52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>156</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>156</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O53" t="s">
+        <v>166</v>
+      </c>
+      <c r="P53" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1560.0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>1773.0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="CB53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC53" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="CD53" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="CE53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>158</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>157</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="N54" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="O54" t="s">
+        <v>161</v>
+      </c>
+      <c r="P54" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>270</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>282</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>3120.0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>576.0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>2196.0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>3120.0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY54" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="BZ54" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="CB54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CC54" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="CD54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CE54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>141.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>157</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>157</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O55" t="s">
+        <v>161</v>
+      </c>
+      <c r="P55" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>277</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="BV55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="CB55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="CC55" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="CD55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="CE55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF55" t="n">
+        <v>63.0</v>
       </c>
     </row>
   </sheetData>

--- a/LIGUEONE_FINALSPREAD.xlsx
+++ b/LIGUEONE_FINALSPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="340">
   <si>
     <t>Div</t>
   </si>
@@ -425,6 +425,60 @@
     <t>54</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
@@ -521,15 +575,18 @@
     <t>2-2</t>
   </si>
   <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
     <t>1-4</t>
   </si>
   <si>
     <t>1-5</t>
   </si>
   <si>
-    <t>2-1</t>
-  </si>
-  <si>
     <t>3-0</t>
   </si>
   <si>
@@ -542,9 +599,6 @@
     <t>4-0</t>
   </si>
   <si>
-    <t>0-3</t>
-  </si>
-  <si>
     <t>8-0</t>
   </si>
   <si>
@@ -557,6 +611,15 @@
     <t>2-3</t>
   </si>
   <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
     <t>2-8</t>
   </si>
   <si>
@@ -662,6 +725,36 @@
     <t>8-4</t>
   </si>
   <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>5-15</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -830,6 +923,60 @@
     <t>Strasbourg-Marseille</t>
   </si>
   <si>
+    <t>Marseille-Angers</t>
+  </si>
+  <si>
+    <t>St Etienne-Auxerre</t>
+  </si>
+  <si>
+    <t>Lille-Toulouse</t>
+  </si>
+  <si>
+    <t>Rennes-Monaco</t>
+  </si>
+  <si>
+    <t>Lyon-Nantes</t>
+  </si>
+  <si>
+    <t>Brest-Le Havre</t>
+  </si>
+  <si>
+    <t>Reims-Montpellier</t>
+  </si>
+  <si>
+    <t>Strasbourg-Lens</t>
+  </si>
+  <si>
+    <t>Nice-Paris SG</t>
+  </si>
+  <si>
+    <t>Monaco-Lille</t>
+  </si>
+  <si>
+    <t>Brest-Rennes</t>
+  </si>
+  <si>
+    <t>St Etienne-Lens</t>
+  </si>
+  <si>
+    <t>Paris SG-Strasbourg</t>
+  </si>
+  <si>
+    <t>Le Havre-Lyon</t>
+  </si>
+  <si>
+    <t>Auxerre-Reims</t>
+  </si>
+  <si>
+    <t>Nantes-Nice</t>
+  </si>
+  <si>
+    <t>Toulouse-Angers</t>
+  </si>
+  <si>
+    <t>Montpellier-Marseille</t>
+  </si>
+  <si>
     <t>Jeremy Stinat</t>
   </si>
   <si>
@@ -882,6 +1029,9 @@
   </si>
   <si>
     <t>Florent Batta</t>
+  </si>
+  <si>
+    <t>Romain Lissorgue</t>
   </si>
 </sst>
 </file>
@@ -1193,16 +1343,16 @@
         <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45520.0</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -1211,7 +1361,7 @@
         <v>4.0</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1220,7 +1370,7 @@
         <v>1.0</v>
       </c>
       <c r="K2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L2" t="n">
         <v>7.84</v>
@@ -1232,10 +1382,10 @@
         <v>1.42</v>
       </c>
       <c r="O2" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="Q2" t="n">
         <v>5.0</v>
@@ -1283,16 +1433,16 @@
         <v>18.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="AG2" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH2" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI2" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ2" t="n">
         <v>3.0</v>
@@ -1301,7 +1451,7 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="AM2" t="e">
         <v>#N/A</v>
@@ -1447,16 +1597,16 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -1465,7 +1615,7 @@
         <v>5.0</v>
       </c>
       <c r="H3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I3" t="n">
         <v>1.0</v>
@@ -1474,7 +1624,7 @@
         <v>3.0</v>
       </c>
       <c r="K3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L3" t="n">
         <v>2.96</v>
@@ -1486,10 +1636,10 @@
         <v>2.51</v>
       </c>
       <c r="O3" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="Q3" t="n">
         <v>7.0</v>
@@ -1537,16 +1687,16 @@
         <v>18.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="AG3" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH3" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI3" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ3" t="n">
         <v>5.0</v>
@@ -1555,7 +1705,7 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="AM3" t="e">
         <v>#N/A</v>
@@ -1701,16 +1851,16 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1719,7 +1869,7 @@
         <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -1728,7 +1878,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L4" t="n">
         <v>3.36</v>
@@ -1740,10 +1890,10 @@
         <v>2.27</v>
       </c>
       <c r="O4" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1791,16 +1941,16 @@
         <v>19.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="AG4" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH4" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI4" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ4" t="n">
         <v>4.0</v>
@@ -1809,7 +1959,7 @@
         <v>1.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="AM4" t="e">
         <v>#N/A</v>
@@ -1955,16 +2105,16 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F5" t="n">
         <v>1.0</v>
@@ -1973,7 +2123,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
@@ -1982,7 +2132,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L5" t="n">
         <v>1.51</v>
@@ -1994,10 +2144,10 @@
         <v>6.26</v>
       </c>
       <c r="O5" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q5" t="n">
         <v>13.0</v>
@@ -2045,16 +2195,16 @@
         <v>27.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="AG5" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AH5" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI5" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ5" t="n">
         <v>2.0</v>
@@ -2063,7 +2213,7 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AM5" t="e">
         <v>#N/A</v>
@@ -2209,16 +2359,16 @@
         <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F6" t="n">
         <v>2.0</v>
@@ -2227,7 +2377,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
@@ -2236,7 +2386,7 @@
         <v>1.0</v>
       </c>
       <c r="K6" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L6" t="n">
         <v>3.22</v>
@@ -2248,10 +2398,10 @@
         <v>2.45</v>
       </c>
       <c r="O6" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Q6" t="n">
         <v>16.0</v>
@@ -2299,16 +2449,16 @@
         <v>28.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="AG6" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH6" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI6" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.0</v>
@@ -2317,7 +2467,7 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="AM6" t="e">
         <v>#N/A</v>
@@ -2463,16 +2613,16 @@
         <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -2481,7 +2631,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2490,7 +2640,7 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L7" t="n">
         <v>5.66</v>
@@ -2502,10 +2652,10 @@
         <v>1.65</v>
       </c>
       <c r="O7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q7" t="n">
         <v>4.0</v>
@@ -2553,16 +2703,16 @@
         <v>16.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="AG7" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AH7" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI7" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ7" t="n">
         <v>1.0</v>
@@ -2571,7 +2721,7 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="AM7" t="e">
         <v>#N/A</v>
@@ -2717,16 +2867,16 @@
         <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -2735,7 +2885,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2744,7 +2894,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L8" t="n">
         <v>2.12</v>
@@ -2756,10 +2906,10 @@
         <v>3.8</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q8" t="n">
         <v>7.0</v>
@@ -2807,16 +2957,16 @@
         <v>38.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="AG8" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH8" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI8" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ8" t="n">
         <v>7.0</v>
@@ -2825,7 +2975,7 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="AM8" t="e">
         <v>#N/A</v>
@@ -2971,16 +3121,16 @@
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -2989,7 +3139,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2998,7 +3148,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L9" t="n">
         <v>2.11</v>
@@ -3010,10 +3160,10 @@
         <v>3.92</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="Q9" t="n">
         <v>7.0</v>
@@ -3061,16 +3211,16 @@
         <v>18.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="AG9" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AH9" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI9" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ9" t="n">
         <v>4.0</v>
@@ -3079,10 +3229,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="AM9" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="AN9" t="n">
         <v>0.0</v>
@@ -3225,16 +3375,16 @@
         <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F10" t="n">
         <v>3.0</v>
@@ -3243,7 +3393,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I10" t="n">
         <v>2.0</v>
@@ -3252,7 +3402,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L10" t="n">
         <v>2.47</v>
@@ -3264,10 +3414,10 @@
         <v>3.01</v>
       </c>
       <c r="O10" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Q10" t="n">
         <v>22.0</v>
@@ -3315,16 +3465,16 @@
         <v>25.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="AG10" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH10" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI10" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ10" t="n">
         <v>3.0</v>
@@ -3333,7 +3483,7 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="AM10" t="e">
         <v>#N/A</v>
@@ -3479,16 +3629,16 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F11" t="n">
         <v>6.0</v>
@@ -3497,7 +3647,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I11" t="n">
         <v>2.0</v>
@@ -3506,7 +3656,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -3518,10 +3668,10 @@
         <v>10.85</v>
       </c>
       <c r="O11" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q11" t="n">
         <v>21.0</v>
@@ -3569,16 +3719,16 @@
         <v>25.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="AG11" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH11" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI11" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ11" t="n">
         <v>5.0</v>
@@ -3587,7 +3737,7 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="AM11" t="e">
         <v>#N/A</v>
@@ -3733,16 +3883,16 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -3751,7 +3901,7 @@
         <v>2.0</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -3760,7 +3910,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L12" t="n">
         <v>2.62</v>
@@ -3772,10 +3922,10 @@
         <v>2.61</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q12" t="n">
         <v>2.0</v>
@@ -3823,16 +3973,16 @@
         <v>17.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="AG12" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH12" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI12" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.0</v>
@@ -3841,7 +3991,7 @@
         <v>1.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="AM12" t="e">
         <v>#N/A</v>
@@ -3987,16 +4137,16 @@
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F13" t="n">
         <v>2.0</v>
@@ -4005,7 +4155,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I13" t="n">
         <v>1.0</v>
@@ -4014,7 +4164,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -4026,10 +4176,10 @@
         <v>8.77</v>
       </c>
       <c r="O13" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q13" t="n">
         <v>11.0</v>
@@ -4077,16 +4227,16 @@
         <v>26.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="AG13" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH13" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI13" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ13" t="n">
         <v>3.0</v>
@@ -4095,7 +4245,7 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="AM13" t="e">
         <v>#N/A</v>
@@ -4241,16 +4391,16 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -4259,7 +4409,7 @@
         <v>2.0</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -4268,7 +4418,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L14" t="n">
         <v>2.11</v>
@@ -4280,10 +4430,10 @@
         <v>3.71</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q14" t="n">
         <v>18.0</v>
@@ -4331,16 +4481,16 @@
         <v>20.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="AG14" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH14" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI14" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ14" t="n">
         <v>6.0</v>
@@ -4349,7 +4499,7 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="AM14" t="e">
         <v>#N/A</v>
@@ -4495,16 +4645,16 @@
         <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -4513,7 +4663,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I15" t="n">
         <v>2.0</v>
@@ -4522,7 +4672,7 @@
         <v>0.0</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L15" t="n">
         <v>1.81</v>
@@ -4534,10 +4684,10 @@
         <v>4.69</v>
       </c>
       <c r="O15" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q15" t="n">
         <v>22.0</v>
@@ -4585,16 +4735,16 @@
         <v>14.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="AG15" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH15" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI15" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ15" t="n">
         <v>0.0</v>
@@ -4603,7 +4753,7 @@
         <v>1.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="AM15" t="e">
         <v>#N/A</v>
@@ -4749,16 +4899,16 @@
         <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F16" t="n">
         <v>2.0</v>
@@ -4767,7 +4917,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I16" t="n">
         <v>1.0</v>
@@ -4776,7 +4926,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L16" t="n">
         <v>2.25</v>
@@ -4788,10 +4938,10 @@
         <v>3.22</v>
       </c>
       <c r="O16" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q16" t="n">
         <v>8.0</v>
@@ -4839,16 +4989,16 @@
         <v>15.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="AG16" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH16" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI16" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ16" t="n">
         <v>0.0</v>
@@ -4857,10 +5007,10 @@
         <v>1.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="AM16" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="AN16" t="n">
         <v>104.0</v>
@@ -5003,16 +5153,16 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F17" t="n">
         <v>1.0</v>
@@ -5021,7 +5171,7 @@
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -5030,7 +5180,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L17" t="n">
         <v>1.88</v>
@@ -5042,10 +5192,10 @@
         <v>4.57</v>
       </c>
       <c r="O17" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q17" t="n">
         <v>10.0</v>
@@ -5093,16 +5243,16 @@
         <v>32.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="AG17" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH17" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI17" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ17" t="n">
         <v>5.0</v>
@@ -5111,7 +5261,7 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="AM17" t="e">
         <v>#N/A</v>
@@ -5257,16 +5407,16 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F18" t="n">
         <v>3.0</v>
@@ -5275,7 +5425,7 @@
         <v>1.0</v>
       </c>
       <c r="H18" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
@@ -5284,7 +5434,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L18" t="n">
         <v>3.19</v>
@@ -5296,10 +5446,10 @@
         <v>2.3</v>
       </c>
       <c r="O18" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="Q18" t="n">
         <v>9.0</v>
@@ -5347,16 +5497,16 @@
         <v>26.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH18" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI18" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ18" t="n">
         <v>6.0</v>
@@ -5365,7 +5515,7 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="AM18" t="e">
         <v>#N/A</v>
@@ -5511,16 +5661,16 @@
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -5529,7 +5679,7 @@
         <v>2.0</v>
       </c>
       <c r="H19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -5538,7 +5688,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L19" t="n">
         <v>1.56</v>
@@ -5550,10 +5700,10 @@
         <v>5.84</v>
       </c>
       <c r="O19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Q19" t="n">
         <v>16.0</v>
@@ -5601,16 +5751,16 @@
         <v>23.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH19" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI19" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ19" t="n">
         <v>2.0</v>
@@ -5619,7 +5769,7 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="AM19" t="e">
         <v>#N/A</v>
@@ -5765,16 +5915,16 @@
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F20" t="n">
         <v>4.0</v>
@@ -5783,7 +5933,7 @@
         <v>3.0</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
@@ -5792,7 +5942,7 @@
         <v>1.0</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L20" t="n">
         <v>1.89</v>
@@ -5804,10 +5954,10 @@
         <v>4.18</v>
       </c>
       <c r="O20" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q20" t="n">
         <v>22.0</v>
@@ -5855,16 +6005,16 @@
         <v>16.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH20" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI20" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ20" t="n">
         <v>5.0</v>
@@ -5873,10 +6023,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="AM20" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="AN20" t="n">
         <v>350.0</v>
@@ -6019,16 +6169,16 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F21" t="n">
         <v>4.0</v>
@@ -6037,7 +6187,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I21" t="n">
         <v>2.0</v>
@@ -6046,7 +6196,7 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L21" t="n">
         <v>1.85</v>
@@ -6058,10 +6208,10 @@
         <v>4.28</v>
       </c>
       <c r="O21" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q21" t="n">
         <v>17.0</v>
@@ -6109,16 +6259,16 @@
         <v>40.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH21" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI21" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ21" t="n">
         <v>5.0</v>
@@ -6127,10 +6277,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="AM21" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="AN21" t="n">
         <v>203.0</v>
@@ -6273,16 +6423,16 @@
         <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -6291,7 +6441,7 @@
         <v>3.0</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -6300,7 +6450,7 @@
         <v>2.0</v>
       </c>
       <c r="K22" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L22" t="n">
         <v>2.35</v>
@@ -6312,10 +6462,10 @@
         <v>3.22</v>
       </c>
       <c r="O22" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q22" t="n">
         <v>11.0</v>
@@ -6363,16 +6513,16 @@
         <v>24.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH22" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI22" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -6381,10 +6531,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="AM22" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="AN22" t="n">
         <v>184.0</v>
@@ -6527,16 +6677,16 @@
         <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -6545,7 +6695,7 @@
         <v>3.0</v>
       </c>
       <c r="H23" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -6554,7 +6704,7 @@
         <v>2.0</v>
       </c>
       <c r="K23" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L23" t="n">
         <v>4.09</v>
@@ -6566,10 +6716,10 @@
         <v>1.91</v>
       </c>
       <c r="O23" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q23" t="n">
         <v>4.0</v>
@@ -6617,16 +6767,16 @@
         <v>22.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="AG23" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH23" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI23" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ23" t="n">
         <v>6.0</v>
@@ -6635,10 +6785,10 @@
         <v>1.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="AM23" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="AN23" t="n">
         <v>175.0</v>
@@ -6781,16 +6931,16 @@
         <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F24" t="n">
         <v>1.0</v>
@@ -6799,7 +6949,7 @@
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -6808,7 +6958,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L24" t="n">
         <v>1.83</v>
@@ -6820,10 +6970,10 @@
         <v>3.9</v>
       </c>
       <c r="O24" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q24" t="n">
         <v>14.0</v>
@@ -6871,16 +7021,16 @@
         <v>32.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH24" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI24" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ24" t="n">
         <v>5.0</v>
@@ -6889,10 +7039,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="AM24" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="AN24" t="n">
         <v>174.0</v>
@@ -7035,16 +7185,16 @@
         <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -7053,7 +7203,7 @@
         <v>4.0</v>
       </c>
       <c r="H25" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -7062,7 +7212,7 @@
         <v>2.0</v>
       </c>
       <c r="K25" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L25" t="n">
         <v>4.2</v>
@@ -7074,10 +7224,10 @@
         <v>2.01</v>
       </c>
       <c r="O25" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="Q25" t="n">
         <v>12.0</v>
@@ -7125,16 +7275,16 @@
         <v>27.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH25" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI25" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ25" t="n">
         <v>10.0</v>
@@ -7143,10 +7293,10 @@
         <v>1.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="AM25" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="AN25" t="n">
         <v>255.0</v>
@@ -7289,16 +7439,16 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F26" t="n">
         <v>3.0</v>
@@ -7307,7 +7457,7 @@
         <v>1.0</v>
       </c>
       <c r="H26" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I26" t="n">
         <v>1.0</v>
@@ -7316,7 +7466,7 @@
         <v>1.0</v>
       </c>
       <c r="K26" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L26" t="n">
         <v>2.81</v>
@@ -7328,10 +7478,10 @@
         <v>2.69</v>
       </c>
       <c r="O26" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="Q26" t="n">
         <v>21.0</v>
@@ -7379,16 +7529,16 @@
         <v>25.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="AG26" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH26" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI26" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ26" t="n">
         <v>6.0</v>
@@ -7397,10 +7547,10 @@
         <v>1.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="AM26" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="AN26" t="n">
         <v>182.0</v>
@@ -7543,16 +7693,16 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F27" t="n">
         <v>2.0</v>
@@ -7561,7 +7711,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I27" t="n">
         <v>1.0</v>
@@ -7570,7 +7720,7 @@
         <v>1.0</v>
       </c>
       <c r="K27" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L27" t="n">
         <v>2.94</v>
@@ -7582,10 +7732,10 @@
         <v>2.37</v>
       </c>
       <c r="O27" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Q27" t="n">
         <v>11.0</v>
@@ -7633,16 +7783,16 @@
         <v>21.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="AG27" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH27" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI27" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ27" t="n">
         <v>3.0</v>
@@ -7651,10 +7801,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="AN27" t="n">
         <v>102.0</v>
@@ -7797,16 +7947,16 @@
         <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -7815,7 +7965,7 @@
         <v>3.0</v>
       </c>
       <c r="H28" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -7824,7 +7974,7 @@
         <v>2.0</v>
       </c>
       <c r="K28" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L28" t="n">
         <v>4.31</v>
@@ -7836,10 +7986,10 @@
         <v>1.86</v>
       </c>
       <c r="O28" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q28" t="n">
         <v>10.0</v>
@@ -7887,16 +8037,16 @@
         <v>12.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AG28" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH28" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI28" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ28" t="n">
         <v>5.0</v>
@@ -7905,10 +8055,10 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="AN28" t="n">
         <v>237.0</v>
@@ -8051,16 +8201,16 @@
         <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -8069,7 +8219,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -8078,7 +8228,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L29" t="n">
         <v>5.22</v>
@@ -8090,10 +8240,10 @@
         <v>1.72</v>
       </c>
       <c r="O29" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q29" t="n">
         <v>10.0</v>
@@ -8141,16 +8291,16 @@
         <v>22.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="AG29" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AH29" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI29" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ29" t="n">
         <v>2.0</v>
@@ -8159,10 +8309,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="AN29" t="n">
         <v>6.0</v>
@@ -8305,16 +8455,16 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -8323,7 +8473,7 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I30" t="n">
         <v>1.0</v>
@@ -8332,7 +8482,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L30" t="n">
         <v>1.75</v>
@@ -8344,10 +8494,10 @@
         <v>4.6</v>
       </c>
       <c r="O30" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q30" t="n">
         <v>10.0</v>
@@ -8395,16 +8545,16 @@
         <v>22.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="AG30" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH30" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI30" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ30" t="n">
         <v>7.0</v>
@@ -8413,10 +8563,10 @@
         <v>1.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="AN30" t="n">
         <v>93.0</v>
@@ -8559,16 +8709,16 @@
         <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -8577,7 +8727,7 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -8586,7 +8736,7 @@
         <v>2.0</v>
       </c>
       <c r="K31" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L31" t="n">
         <v>4.02</v>
@@ -8598,10 +8748,10 @@
         <v>1.89</v>
       </c>
       <c r="O31" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="Q31" t="n">
         <v>13.0</v>
@@ -8649,16 +8799,16 @@
         <v>29.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="AG31" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH31" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI31" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ31" t="n">
         <v>3.0</v>
@@ -8667,10 +8817,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="AN31" t="n">
         <v>122.0</v>
@@ -8813,16 +8963,16 @@
         <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F32" t="n">
         <v>3.0</v>
@@ -8831,7 +8981,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
@@ -8840,7 +8990,7 @@
         <v>1.0</v>
       </c>
       <c r="K32" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L32" t="n">
         <v>1.28</v>
@@ -8852,10 +9002,10 @@
         <v>9.59</v>
       </c>
       <c r="O32" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="Q32" t="n">
         <v>22.0</v>
@@ -8903,16 +9053,16 @@
         <v>20.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="AG32" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH32" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI32" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ32" t="n">
         <v>5.0</v>
@@ -8921,10 +9071,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="AM32" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="AN32" t="n">
         <v>218.0</v>
@@ -9067,16 +9217,16 @@
         <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F33" t="n">
         <v>3.0</v>
@@ -9085,7 +9235,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I33" t="n">
         <v>2.0</v>
@@ -9094,7 +9244,7 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L33" t="n">
         <v>1.63</v>
@@ -9106,10 +9256,10 @@
         <v>5.16</v>
       </c>
       <c r="O33" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Q33" t="n">
         <v>11.0</v>
@@ -9157,16 +9307,16 @@
         <v>17.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="AG33" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH33" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI33" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ33" t="n">
         <v>4.0</v>
@@ -9175,10 +9325,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="AM33" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="AN33" t="n">
         <v>119.0</v>
@@ -9321,16 +9471,16 @@
         <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
@@ -9339,7 +9489,7 @@
         <v>2.0</v>
       </c>
       <c r="H34" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -9348,7 +9498,7 @@
         <v>1.0</v>
       </c>
       <c r="K34" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L34" t="n">
         <v>2.43</v>
@@ -9360,10 +9510,10 @@
         <v>3.03</v>
       </c>
       <c r="O34" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q34" t="n">
         <v>18.0</v>
@@ -9411,16 +9561,16 @@
         <v>19.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="AG34" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH34" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI34" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ34" t="n">
         <v>4.0</v>
@@ -9429,10 +9579,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="AM34" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="n">
         <v>152.0</v>
@@ -9575,16 +9725,16 @@
         <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -9593,7 +9743,7 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
@@ -9602,7 +9752,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L35" t="n">
         <v>1.69</v>
@@ -9614,10 +9764,10 @@
         <v>5.31</v>
       </c>
       <c r="O35" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q35" t="n">
         <v>10.0</v>
@@ -9665,16 +9815,16 @@
         <v>25.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="AG35" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH35" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI35" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ35" t="n">
         <v>5.0</v>
@@ -9683,10 +9833,10 @@
         <v>0.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="AN35" t="n">
         <v>93.0</v>
@@ -9829,16 +9979,16 @@
         <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F36" t="n">
         <v>2.0</v>
@@ -9847,7 +9997,7 @@
         <v>0.0</v>
       </c>
       <c r="H36" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -9856,7 +10006,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L36" t="n">
         <v>1.85</v>
@@ -9868,10 +10018,10 @@
         <v>4.37</v>
       </c>
       <c r="O36" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q36" t="n">
         <v>15.0</v>
@@ -9919,16 +10069,16 @@
         <v>21.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="AG36" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH36" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI36" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ36" t="n">
         <v>2.0</v>
@@ -9937,10 +10087,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="AN36" t="n">
         <v>156.0</v>
@@ -10083,16 +10233,16 @@
         <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -10101,7 +10251,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -10110,7 +10260,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L37" t="n">
         <v>1.86</v>
@@ -10122,10 +10272,10 @@
         <v>4.18</v>
       </c>
       <c r="O37" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="Q37" t="n">
         <v>12.0</v>
@@ -10173,16 +10323,16 @@
         <v>23.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="AG37" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AH37" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI37" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ37" t="n">
         <v>0.0</v>
@@ -10191,10 +10341,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="AM37" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="AN37" t="n">
         <v>0.0</v>
@@ -10337,16 +10487,16 @@
         <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F38" t="n">
         <v>8.0</v>
@@ -10355,7 +10505,7 @@
         <v>0.0</v>
       </c>
       <c r="H38" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I38" t="n">
         <v>6.0</v>
@@ -10364,7 +10514,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L38" t="n">
         <v>1.55</v>
@@ -10376,10 +10526,10 @@
         <v>6.57</v>
       </c>
       <c r="O38" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="Q38" t="n">
         <v>18.0</v>
@@ -10427,16 +10577,16 @@
         <v>20.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="AG38" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH38" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI38" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ38" t="n">
         <v>1.0</v>
@@ -10445,10 +10595,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="AM38" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="AN38" t="n">
         <v>297.0</v>
@@ -10591,16 +10741,16 @@
         <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F39" t="n">
         <v>3.0</v>
@@ -10609,7 +10759,7 @@
         <v>3.0</v>
       </c>
       <c r="H39" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I39" t="n">
         <v>2.0</v>
@@ -10618,7 +10768,7 @@
         <v>2.0</v>
       </c>
       <c r="K39" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L39" t="n">
         <v>1.74</v>
@@ -10630,10 +10780,10 @@
         <v>4.93</v>
       </c>
       <c r="O39" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="Q39" t="n">
         <v>15.0</v>
@@ -10681,16 +10831,16 @@
         <v>28.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="AG39" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH39" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI39" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ39" t="n">
         <v>4.0</v>
@@ -10699,10 +10849,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="AM39" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="AN39" t="n">
         <v>264.0</v>
@@ -10845,16 +10995,16 @@
         <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F40" t="n">
         <v>1.0</v>
@@ -10863,7 +11013,7 @@
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I40" t="n">
         <v>1.0</v>
@@ -10872,7 +11022,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L40" t="n">
         <v>2.44</v>
@@ -10884,10 +11034,10 @@
         <v>3.09</v>
       </c>
       <c r="O40" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q40" t="n">
         <v>11.0</v>
@@ -10935,16 +11085,16 @@
         <v>36.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="AG40" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH40" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI40" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ40" t="n">
         <v>6.0</v>
@@ -10953,10 +11103,10 @@
         <v>0.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="AM40" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="AN40" t="n">
         <v>114.0</v>
@@ -11099,16 +11249,16 @@
         <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -11117,7 +11267,7 @@
         <v>1.0</v>
       </c>
       <c r="H41" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
@@ -11126,7 +11276,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L41" t="n">
         <v>6.91</v>
@@ -11138,10 +11288,10 @@
         <v>1.44</v>
       </c>
       <c r="O41" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q41" t="n">
         <v>8.0</v>
@@ -11189,16 +11339,16 @@
         <v>17.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="AG41" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH41" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI41" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ41" t="n">
         <v>3.0</v>
@@ -11207,10 +11357,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="AM41" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="AN41" t="n">
         <v>77.0</v>
@@ -11353,16 +11503,16 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F42" t="n">
         <v>3.0</v>
@@ -11371,7 +11521,7 @@
         <v>1.0</v>
       </c>
       <c r="H42" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I42" t="n">
         <v>1.0</v>
@@ -11380,7 +11530,7 @@
         <v>1.0</v>
       </c>
       <c r="K42" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L42" t="n">
         <v>1.38</v>
@@ -11392,10 +11542,10 @@
         <v>8.11</v>
       </c>
       <c r="O42" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="Q42" t="n">
         <v>14.0</v>
@@ -11443,16 +11593,16 @@
         <v>27.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="AG42" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH42" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI42" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ42" t="n">
         <v>4.0</v>
@@ -11461,10 +11611,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="AM42" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="AN42" t="n">
         <v>175.0</v>
@@ -11607,16 +11757,16 @@
         <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F43" t="n">
         <v>1.0</v>
@@ -11625,7 +11775,7 @@
         <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -11634,7 +11784,7 @@
         <v>1.0</v>
       </c>
       <c r="K43" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L43" t="n">
         <v>3.32</v>
@@ -11646,10 +11796,10 @@
         <v>2.39</v>
       </c>
       <c r="O43" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q43" t="n">
         <v>4.0</v>
@@ -11697,16 +11847,16 @@
         <v>29.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="AG43" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH43" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI43" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ43" t="n">
         <v>5.0</v>
@@ -11715,10 +11865,10 @@
         <v>0.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="AM43" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="AN43" t="n">
         <v>42.0</v>
@@ -11861,16 +12011,16 @@
         <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F44" t="n">
         <v>2.0</v>
@@ -11879,7 +12029,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
@@ -11888,7 +12038,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L44" t="n">
         <v>2.16</v>
@@ -11900,10 +12050,10 @@
         <v>3.44</v>
       </c>
       <c r="O44" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q44" t="n">
         <v>9.0</v>
@@ -11951,16 +12101,16 @@
         <v>33.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="AG44" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH44" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI44" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ44" t="n">
         <v>2.0</v>
@@ -11969,10 +12119,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="AM44" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="AN44" t="n">
         <v>111.0</v>
@@ -12115,16 +12265,16 @@
         <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F45" t="n">
         <v>3.0</v>
@@ -12133,7 +12283,7 @@
         <v>2.0</v>
       </c>
       <c r="H45" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -12142,7 +12292,7 @@
         <v>1.0</v>
       </c>
       <c r="K45" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L45" t="n">
         <v>2.39</v>
@@ -12154,10 +12304,10 @@
         <v>3.14</v>
       </c>
       <c r="O45" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="Q45" t="n">
         <v>14.0</v>
@@ -12205,16 +12355,16 @@
         <v>33.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="AG45" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH45" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI45" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ45" t="n">
         <v>7.0</v>
@@ -12223,10 +12373,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="AM45" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="AN45" t="n">
         <v>301.0</v>
@@ -12369,16 +12519,16 @@
         <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F46" t="n">
         <v>2.0</v>
@@ -12387,7 +12537,7 @@
         <v>3.0</v>
       </c>
       <c r="H46" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
@@ -12396,7 +12546,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L46" t="n">
         <v>3.06</v>
@@ -12408,10 +12558,10 @@
         <v>2.21</v>
       </c>
       <c r="O46" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="Q46" t="n">
         <v>18.0</v>
@@ -12459,16 +12609,16 @@
         <v>20.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AG46" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH46" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI46" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ46" t="n">
         <v>7.0</v>
@@ -12477,10 +12627,10 @@
         <v>1.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="AM46" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="AN46" t="n">
         <v>384.0</v>
@@ -12623,16 +12773,16 @@
         <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45562.0</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F47" t="n">
         <v>3.0</v>
@@ -12641,7 +12791,7 @@
         <v>0.0</v>
       </c>
       <c r="H47" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I47" t="n">
         <v>2.0</v>
@@ -12650,7 +12800,7 @@
         <v>0.0</v>
       </c>
       <c r="K47" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L47" t="n">
         <v>2.86</v>
@@ -12662,10 +12812,10 @@
         <v>2.62</v>
       </c>
       <c r="O47" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Q47" t="n">
         <v>15.0</v>
@@ -12713,16 +12863,16 @@
         <v>29.0</v>
       </c>
       <c r="AF47" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="AG47" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH47" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI47" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ47" t="n">
         <v>2.0</v>
@@ -12731,10 +12881,10 @@
         <v>0.0</v>
       </c>
       <c r="AL47" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="AM47" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="AN47" t="n">
         <v>122.0</v>
@@ -12877,16 +13027,16 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45562.0</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -12895,7 +13045,7 @@
         <v>1.0</v>
       </c>
       <c r="H48" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I48" t="n">
         <v>1.0</v>
@@ -12904,7 +13054,7 @@
         <v>0.0</v>
       </c>
       <c r="K48" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L48" t="n">
         <v>1.37</v>
@@ -12916,10 +13066,10 @@
         <v>8.67</v>
       </c>
       <c r="O48" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="Q48" t="n">
         <v>22.0</v>
@@ -12967,16 +13117,16 @@
         <v>20.0</v>
       </c>
       <c r="AF48" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="AG48" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH48" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI48" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ48" t="n">
         <v>4.0</v>
@@ -12985,10 +13135,10 @@
         <v>0.0</v>
       </c>
       <c r="AL48" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="AM48" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="AN48" t="n">
         <v>231.0</v>
@@ -13131,16 +13281,16 @@
         <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -13149,7 +13299,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
@@ -13158,7 +13308,7 @@
         <v>0.0</v>
       </c>
       <c r="K49" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L49" t="n">
         <v>2.08</v>
@@ -13170,10 +13320,10 @@
         <v>3.83</v>
       </c>
       <c r="O49" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="Q49" t="n">
         <v>22.0</v>
@@ -13221,16 +13371,16 @@
         <v>23.0</v>
       </c>
       <c r="AF49" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="AG49" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AH49" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI49" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ49" t="n">
         <v>6.0</v>
@@ -13239,10 +13389,10 @@
         <v>1.0</v>
       </c>
       <c r="AL49" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="AM49" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="AN49" t="n">
         <v>0.0</v>
@@ -13385,16 +13535,16 @@
         <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
@@ -13403,7 +13553,7 @@
         <v>3.0</v>
       </c>
       <c r="H50" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
@@ -13412,7 +13562,7 @@
         <v>2.0</v>
       </c>
       <c r="K50" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L50" t="n">
         <v>4.7</v>
@@ -13424,10 +13574,10 @@
         <v>1.81</v>
       </c>
       <c r="O50" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="Q50" t="n">
         <v>7.0</v>
@@ -13475,16 +13625,16 @@
         <v>20.0</v>
       </c>
       <c r="AF50" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AG50" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH50" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI50" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ50" t="n">
         <v>3.0</v>
@@ -13493,10 +13643,10 @@
         <v>0.0</v>
       </c>
       <c r="AL50" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="AM50" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="AN50" t="n">
         <v>137.0</v>
@@ -13639,16 +13789,16 @@
         <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -13657,7 +13807,7 @@
         <v>1.0</v>
       </c>
       <c r="H51" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I51" t="n">
         <v>1.0</v>
@@ -13666,7 +13816,7 @@
         <v>1.0</v>
       </c>
       <c r="K51" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L51" t="n">
         <v>1.34</v>
@@ -13678,10 +13828,10 @@
         <v>8.48</v>
       </c>
       <c r="O51" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Q51" t="n">
         <v>21.0</v>
@@ -13729,16 +13879,16 @@
         <v>34.0</v>
       </c>
       <c r="AF51" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="AG51" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH51" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI51" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ51" t="n">
         <v>7.0</v>
@@ -13747,10 +13897,10 @@
         <v>1.0</v>
       </c>
       <c r="AL51" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="AM51" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="AN51" t="n">
         <v>138.0</v>
@@ -13893,16 +14043,16 @@
         <v>133</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C52" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F52" t="n">
         <v>1.0</v>
@@ -13911,7 +14061,7 @@
         <v>2.0</v>
       </c>
       <c r="H52" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I52" t="n">
         <v>1.0</v>
@@ -13920,7 +14070,7 @@
         <v>1.0</v>
       </c>
       <c r="K52" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L52" t="n">
         <v>2.5</v>
@@ -13932,10 +14082,10 @@
         <v>2.85</v>
       </c>
       <c r="O52" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q52" t="n">
         <v>10.0</v>
@@ -13983,16 +14133,16 @@
         <v>27.0</v>
       </c>
       <c r="AF52" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="AG52" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH52" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI52" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ52" t="n">
         <v>4.0</v>
@@ -14001,10 +14151,10 @@
         <v>0.0</v>
       </c>
       <c r="AL52" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="AM52" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="AN52" t="n">
         <v>132.0</v>
@@ -14147,16 +14297,16 @@
         <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C53" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F53" t="n">
         <v>1.0</v>
@@ -14165,7 +14315,7 @@
         <v>3.0</v>
       </c>
       <c r="H53" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -14174,7 +14324,7 @@
         <v>2.0</v>
       </c>
       <c r="K53" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L53" t="n">
         <v>3.59</v>
@@ -14186,10 +14336,10 @@
         <v>2.22</v>
       </c>
       <c r="O53" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q53" t="n">
         <v>14.0</v>
@@ -14237,16 +14387,16 @@
         <v>18.0</v>
       </c>
       <c r="AF53" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="AG53" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH53" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI53" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ53" t="n">
         <v>3.0</v>
@@ -14255,10 +14405,10 @@
         <v>0.0</v>
       </c>
       <c r="AL53" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="AM53" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="AN53" t="n">
         <v>197.0</v>
@@ -14401,16 +14551,16 @@
         <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C54" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F54" t="n">
         <v>2.0</v>
@@ -14419,7 +14569,7 @@
         <v>2.0</v>
       </c>
       <c r="H54" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I54" t="n">
         <v>1.0</v>
@@ -14428,7 +14578,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L54" t="n">
         <v>1.78</v>
@@ -14440,10 +14590,10 @@
         <v>4.92</v>
       </c>
       <c r="O54" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Q54" t="n">
         <v>16.0</v>
@@ -14491,16 +14641,16 @@
         <v>23.0</v>
       </c>
       <c r="AF54" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="AG54" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AH54" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AI54" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AJ54" t="n">
         <v>4.0</v>
@@ -14509,10 +14659,10 @@
         <v>1.0</v>
       </c>
       <c r="AL54" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="AM54" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="AN54" t="n">
         <v>183.0</v>
@@ -14655,16 +14805,16 @@
         <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C55" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F55" t="n">
         <v>1.0</v>
@@ -14673,7 +14823,7 @@
         <v>0.0</v>
       </c>
       <c r="H55" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I55" t="n">
         <v>1.0</v>
@@ -14682,7 +14832,7 @@
         <v>0.0</v>
       </c>
       <c r="K55" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L55" t="n">
         <v>3.56</v>
@@ -14694,10 +14844,10 @@
         <v>2.03</v>
       </c>
       <c r="O55" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q55" t="n">
         <v>14.0</v>
@@ -14745,16 +14895,16 @@
         <v>24.0</v>
       </c>
       <c r="AF55" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="AG55" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AH55" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AI55" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AJ55" t="n">
         <v>3.0</v>
@@ -14763,10 +14913,10 @@
         <v>0.0</v>
       </c>
       <c r="AL55" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="AM55" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="AN55" t="n">
         <v>40.0</v>
@@ -14902,6 +15052,4578 @@
       </c>
       <c r="CF55" t="n">
         <v>63.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" t="n" s="2">
+        <v>45569.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>176</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>176</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M56" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="N56" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="O56" t="s">
+        <v>181</v>
+      </c>
+      <c r="P56" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1625.0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>4050.0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>2160.0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="CB56" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CC56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD56" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CE56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>116.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>175</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>175</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O57" t="s">
+        <v>179</v>
+      </c>
+      <c r="P57" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>675.0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>2061.0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>1440.0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="CB57" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="CC57" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CD57" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CE57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF57" t="n">
+        <v>107.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>175</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>174</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="O58" t="s">
+        <v>177</v>
+      </c>
+      <c r="P58" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>332</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1750.0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BZ58" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="CA58" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="CB58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CC58" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="CD58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CE58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF58" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>174</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>174</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="O59" t="s">
+        <v>183</v>
+      </c>
+      <c r="P59" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>323</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>546.0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>2520.0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="CB59" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="CC59" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CD59" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="CE59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>117.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" t="s">
+        <v>170</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>175</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>175</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O60" t="s">
+        <v>179</v>
+      </c>
+      <c r="P60" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>1140.0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY60" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="CB60" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="CC60" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="CD60" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="CE60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>175</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>175</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="O61" t="s">
+        <v>179</v>
+      </c>
+      <c r="P61" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1625.0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>4770.0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>530.0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="BZ61" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="CB61" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CC61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD61" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CE61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF61" t="n">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>175</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>175</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O62" t="s">
+        <v>187</v>
+      </c>
+      <c r="P62" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>6240.0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>2440.0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>3840.0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY62" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="BZ62" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="CA62" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="CB62" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CC62" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CD62" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CE62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF62" t="n">
+        <v>164.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>176</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>174</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O63" t="s">
+        <v>183</v>
+      </c>
+      <c r="P63" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT63" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY63" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BZ63" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="CA63" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="CB63" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CC63" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CD63" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CE63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>171</v>
+      </c>
+      <c r="E64" t="s">
+        <v>165</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>176</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>175</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O64" t="s">
+        <v>179</v>
+      </c>
+      <c r="P64" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>810.0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BT64" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BV64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW64" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="BX64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY64" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BZ64" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="CA64" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="CB64" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="CC64" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CD64" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CE64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF64" t="n">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" t="n" s="2">
+        <v>45583.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" t="s">
+        <v>167</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>176</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O65" t="s">
+        <v>181</v>
+      </c>
+      <c r="P65" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>335</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1750.0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>595.0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BT65" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BV65" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="BX65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY65" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="BZ65" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="CA65" t="n">
+        <v>416.0</v>
+      </c>
+      <c r="CB65" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="CC65" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CD65" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CE65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF65" t="n">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" t="s">
+        <v>164</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>176</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>176</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O66" t="s">
+        <v>181</v>
+      </c>
+      <c r="P66" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1480.0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT66" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="BV66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW66" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY66" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="BZ66" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="CA66" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="CB66" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="CC66" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CD66" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CE66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF66" t="n">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>174</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>174</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O67" t="s">
+        <v>177</v>
+      </c>
+      <c r="P67" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>585.0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>891.0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT67" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BV67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BX67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY67" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BZ67" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="CA67" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="CB67" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="CC67" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CD67" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CE67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF67" t="n">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>175</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>175</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M68" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="N68" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="O68" t="s">
+        <v>179</v>
+      </c>
+      <c r="P68" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>321</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>4560.0</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>684.0</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>1140.0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>3690.0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>2400.0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT68" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="BV68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="BX68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY68" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="BZ68" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="CA68" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="CB68" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CC68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CD68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CE68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF68" t="n">
+        <v>140.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" t="s">
+        <v>166</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>174</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>174</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="O69" t="s">
+        <v>177</v>
+      </c>
+      <c r="P69" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>3780.0</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>2470.0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>2800.0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BQ69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT69" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BV69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW69" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="BX69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY69" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BZ69" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="CA69" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="CB69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CC69" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CD69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CE69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF69" t="n">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" t="s">
+        <v>158</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>175</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>175</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O70" t="s">
+        <v>179</v>
+      </c>
+      <c r="P70" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>338</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>3100.0</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>868.0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>2212.0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2100.0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT70" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="BV70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY70" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="BZ70" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="CA70" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="CB70" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CC70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF70" t="n">
+        <v>122.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>176</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>176</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O71" t="s">
+        <v>181</v>
+      </c>
+      <c r="P71" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>318</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>322</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>2040.0</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>816.0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>1668.0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BT71" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BV71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW71" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="BX71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY71" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BZ71" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="CA71" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="CB71" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="CC71" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="CD71" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="CE71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF71" t="n">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>176</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>174</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="O72" t="s">
+        <v>177</v>
+      </c>
+      <c r="P72" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT72" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BV72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW72" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="BX72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY72" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BZ72" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="CA72" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="CB72" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CC72" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CD72" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CE72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF72" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" t="s">
+        <v>173</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>174</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>174</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O73" t="s">
+        <v>188</v>
+      </c>
+      <c r="P73" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>332</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>6305.0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>485.0</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>485.0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>1040.0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>1625.0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ73" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BT73" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BV73" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BX73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY73" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="BZ73" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="CA73" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="CB73" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CC73" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CD73" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CE73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF73" t="n">
+        <v>125.0</v>
       </c>
     </row>
   </sheetData>
